--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem2/42/correct_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem2/42/correct_predictions_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,21 +467,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IMU calibration required Calibrate IMU .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Calibrate IMU</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>14-16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -497,21 +497,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Please fly away or land with caution</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14-16</t>
+          <t>10-16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -527,21 +527,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Critical low battery Return to home or land promptly .</t>
+          <t>High wind velocity Fly with caution .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Return to home or land promptly</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,21 +557,21 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate Fly with caution .</t>
+          <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -587,11 +587,11 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>High wind velocity Fly with caution .</t>
+          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -617,21 +617,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked Fly with caution .</t>
+          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -647,21 +647,21 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and return to home manually</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -677,21 +677,21 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Strong Interference Detected Be careful when flying long distances .</t>
+          <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Be careful when flying long distances</t>
+          <t>Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>6-13</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -707,21 +707,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
+          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Contact DJI Support to arrange for repairs</t>
+          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -737,21 +737,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
+          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -767,51 +767,51 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
+          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
+          <t>Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Take care of your gimbal when landing</t>
+          <t>Please contact DJI Support</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8-14</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -820,366 +820,6 @@
         </is>
       </c>
       <c r="F13" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>23</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Remote controller signal weak Adjust remote controller antennas .</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Adjust remote controller antennas</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4-7</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>24</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Fly with caution</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>9-11</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>25</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Stop flying and wait for battery temperature to return to normal</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2-12</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>29</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Manually adjust flight route or return to home</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>6-13</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>32</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Large Wind Velocity Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Fly with caution</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3-5</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>33</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2-14</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>36</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Aircraft power insufficient Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Fly with caution</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>3-5</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>37</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Check map to find Recommended Zones</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>4-9</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>38</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Contact DJI Support for assistance</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>4-8</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>39</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Compass data error Please contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Please contact DJI Support</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>3-6</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>43</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Cool down the monitor to prevent overheating</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>4-10</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>44</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Aircraft takeoff altitude error Restart aircraft .</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Restart aircraft</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>4-5</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem2/42/correct_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem2/42/correct_predictions_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,21 +467,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+          <t>IMU calibration required Calibrate IMU .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Calibrate IMU</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14-16</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -497,21 +497,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Please fly away or land with caution</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10-16</t>
+          <t>14-16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -527,21 +527,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>High wind velocity Fly with caution .</t>
+          <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Return to home or land promptly</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,21 +557,21 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+          <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and return to home manually</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -587,11 +587,11 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
+          <t>High wind velocity Fly with caution .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -617,21 +617,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
+          <t>Vision sensor(s) blocked Fly with caution .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Take care of your gimbal when landing</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8-14</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -647,21 +647,21 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
+          <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -677,21 +677,21 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
+          <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Manually adjust flight route or return to home</t>
+          <t>Be careful when flying long distances</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6-13</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -707,21 +707,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -737,21 +737,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
+          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Check map to find Recommended Zones</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -767,59 +767,419 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
+          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Aircraft antenna satellite signal searching error</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>21</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Take care of your gimbal when landing</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8-14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>23</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Remote controller signal weak Adjust remote controller antennas .</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Adjust remote controller antennas</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4-7</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>24</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Fly with caution</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9-11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>25</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Stop flying and wait for battery temperature to return to normal</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2-12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>29</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Manually adjust flight route or return to home</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6-13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>32</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Large Wind Velocity Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Fly with caution</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3-5</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>33</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2-14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Aircraft power insufficient Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Fly with caution</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3-5</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>37</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Check map to find Recommended Zones</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4-9</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>38</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Contact DJI Support for assistance</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4-8</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
         <v>39</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Please contact DJI Support</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>3-6</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>43</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Cool down the monitor to prevent overheating</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4-10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>44</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Aircraft takeoff altitude error Restart aircraft .</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Restart aircraft</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4-5</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
